--- a/file_export/nang_luong/Quyet dinh nang luong voi can bo 353453436.xlsx
+++ b/file_export/nang_luong/Quyet dinh nang luong voi can bo 353453436.xlsx
@@ -31,7 +31,7 @@
     <t>Số:</t>
   </si>
   <si>
-    <t>Hà Nội,ngày 21 tháng 10 năm 2014</t>
+    <t>Hà Nội,ngày 24 tháng 10 năm 2014</t>
   </si>
   <si>
     <t xml:space="preserve">QUYẾT ĐỊNH
@@ -76,7 +76,7 @@
     <t xml:space="preserve">Hệ số: </t>
   </si>
   <si>
-    <t>Thời điểm hưởng lương mới và tính cho lần nâng bậc lương tiếp theo kể từ ngày 21-10-2014</t>
+    <t>Thời điểm hưởng lương mới và tính cho lần nâng bậc lương tiếp theo kể từ ngày 24-10-2014</t>
   </si>
   <si>
     <t>Điều 2.</t>
